--- a/metadata/metadata.xlsx
+++ b/metadata/metadata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE82D4C-D97C-4A7D-A6A0-37AB96444789}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646A0800-D246-184B-8B9B-C37B047F3431}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14120" yWindow="760" windowWidth="14840" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="716">
   <si>
     <t>rp_id</t>
   </si>
@@ -202,9 +202,6 @@
     <t>https://www.google.com/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=3&amp;cad=rja&amp;uact=8&amp;ved=2ahUKEwiK67Wzp8DhAhVLSxUIHb4oA4AQFjACegQIARAB&amp;url=https%3A%2F%2Fdema.az.gov%2Femergency-management%2Fpreparedness%2Fplanning-branch&amp;usg=AOvVaw3x_RxXujdaSnEsEcWA852l</t>
   </si>
   <si>
-    <t>contacting authority</t>
-  </si>
-  <si>
     <t>State of Arkansas All-Hazards Mitigation Plan</t>
   </si>
   <si>
@@ -281,13 +278,1903 @@
   </si>
   <si>
     <t>District of Columbia Homeland Security and Emergency Management Agency</t>
+  </si>
+  <si>
+    <t>rp0011</t>
+  </si>
+  <si>
+    <t>rp0012</t>
+  </si>
+  <si>
+    <t>rp0013</t>
+  </si>
+  <si>
+    <t>rp0014</t>
+  </si>
+  <si>
+    <t>rp0015</t>
+  </si>
+  <si>
+    <t>rp0016</t>
+  </si>
+  <si>
+    <t>rp0017</t>
+  </si>
+  <si>
+    <t>rp0018</t>
+  </si>
+  <si>
+    <t>rp0019</t>
+  </si>
+  <si>
+    <t>rp0020</t>
+  </si>
+  <si>
+    <t>rp0021</t>
+  </si>
+  <si>
+    <t>rp0022</t>
+  </si>
+  <si>
+    <t>rp0023</t>
+  </si>
+  <si>
+    <t>rp0024</t>
+  </si>
+  <si>
+    <t>rp0025</t>
+  </si>
+  <si>
+    <t>rp0026</t>
+  </si>
+  <si>
+    <t>rp0027</t>
+  </si>
+  <si>
+    <t>rp0028</t>
+  </si>
+  <si>
+    <t>rp0029</t>
+  </si>
+  <si>
+    <t>rp0030</t>
+  </si>
+  <si>
+    <t>rp0031</t>
+  </si>
+  <si>
+    <t>rp0032</t>
+  </si>
+  <si>
+    <t>rp0033</t>
+  </si>
+  <si>
+    <t>rp0034</t>
+  </si>
+  <si>
+    <t>rp0035</t>
+  </si>
+  <si>
+    <t>rp0036</t>
+  </si>
+  <si>
+    <t>rp0037</t>
+  </si>
+  <si>
+    <t>rp0038</t>
+  </si>
+  <si>
+    <t>rp0039</t>
+  </si>
+  <si>
+    <t>rp0040</t>
+  </si>
+  <si>
+    <t>rp0041</t>
+  </si>
+  <si>
+    <t>rp0042</t>
+  </si>
+  <si>
+    <t>rp0043</t>
+  </si>
+  <si>
+    <t>rp0044</t>
+  </si>
+  <si>
+    <t>rp0045</t>
+  </si>
+  <si>
+    <t>rp0046</t>
+  </si>
+  <si>
+    <t>rp0047</t>
+  </si>
+  <si>
+    <t>rp0048</t>
+  </si>
+  <si>
+    <t>rp0049</t>
+  </si>
+  <si>
+    <t>rp0050</t>
+  </si>
+  <si>
+    <t>rp0051</t>
+  </si>
+  <si>
+    <t>rp0052</t>
+  </si>
+  <si>
+    <t>rp0053</t>
+  </si>
+  <si>
+    <t>rp0054</t>
+  </si>
+  <si>
+    <t>rp0055</t>
+  </si>
+  <si>
+    <t>rp0056</t>
+  </si>
+  <si>
+    <t>rp0057</t>
+  </si>
+  <si>
+    <t>rp0058</t>
+  </si>
+  <si>
+    <t>rp0059</t>
+  </si>
+  <si>
+    <t>rp0060</t>
+  </si>
+  <si>
+    <t>rp0061</t>
+  </si>
+  <si>
+    <t>rp0062</t>
+  </si>
+  <si>
+    <t>rp0063</t>
+  </si>
+  <si>
+    <t>rp0064</t>
+  </si>
+  <si>
+    <t>rp0065</t>
+  </si>
+  <si>
+    <t>rp0066</t>
+  </si>
+  <si>
+    <t>rp0067</t>
+  </si>
+  <si>
+    <t>rp0068</t>
+  </si>
+  <si>
+    <t>rp0069</t>
+  </si>
+  <si>
+    <t>rp0070</t>
+  </si>
+  <si>
+    <t>rp0071</t>
+  </si>
+  <si>
+    <t>rp0072</t>
+  </si>
+  <si>
+    <t>rp0073</t>
+  </si>
+  <si>
+    <t>rp0074</t>
+  </si>
+  <si>
+    <t>rp0075</t>
+  </si>
+  <si>
+    <t>rp0076</t>
+  </si>
+  <si>
+    <t>rp0077</t>
+  </si>
+  <si>
+    <t>rp0078</t>
+  </si>
+  <si>
+    <t>rp0079</t>
+  </si>
+  <si>
+    <t>rp0080</t>
+  </si>
+  <si>
+    <t>rp0081</t>
+  </si>
+  <si>
+    <t>rp0082</t>
+  </si>
+  <si>
+    <t>rp0083</t>
+  </si>
+  <si>
+    <t>rp0084</t>
+  </si>
+  <si>
+    <t>rp0085</t>
+  </si>
+  <si>
+    <t>rp0086</t>
+  </si>
+  <si>
+    <t>rp0087</t>
+  </si>
+  <si>
+    <t>rp0088</t>
+  </si>
+  <si>
+    <t>rp0089</t>
+  </si>
+  <si>
+    <t>rp0090</t>
+  </si>
+  <si>
+    <t>rp0091</t>
+  </si>
+  <si>
+    <t>rp0092</t>
+  </si>
+  <si>
+    <t>rp0093</t>
+  </si>
+  <si>
+    <t>rp0094</t>
+  </si>
+  <si>
+    <t>rp0095</t>
+  </si>
+  <si>
+    <t>rp0096</t>
+  </si>
+  <si>
+    <t>rp0097</t>
+  </si>
+  <si>
+    <t>rp0098</t>
+  </si>
+  <si>
+    <t>rp0099</t>
+  </si>
+  <si>
+    <t>rp0100</t>
+  </si>
+  <si>
+    <t>rp0101</t>
+  </si>
+  <si>
+    <t>rp0102</t>
+  </si>
+  <si>
+    <t>rp0103</t>
+  </si>
+  <si>
+    <t>rp0104</t>
+  </si>
+  <si>
+    <t>rp0105</t>
+  </si>
+  <si>
+    <t>rp0106</t>
+  </si>
+  <si>
+    <t>rp0107</t>
+  </si>
+  <si>
+    <t>rp0108</t>
+  </si>
+  <si>
+    <t>rp0109</t>
+  </si>
+  <si>
+    <t>rp0110</t>
+  </si>
+  <si>
+    <t>rp0111</t>
+  </si>
+  <si>
+    <t>rp0112</t>
+  </si>
+  <si>
+    <t>rp0113</t>
+  </si>
+  <si>
+    <t>rp0114</t>
+  </si>
+  <si>
+    <t>rp0115</t>
+  </si>
+  <si>
+    <t>rp0116</t>
+  </si>
+  <si>
+    <t>rp0117</t>
+  </si>
+  <si>
+    <t>rp0118</t>
+  </si>
+  <si>
+    <t>rp0119</t>
+  </si>
+  <si>
+    <t>rp0120</t>
+  </si>
+  <si>
+    <t>rp0121</t>
+  </si>
+  <si>
+    <t>rp0122</t>
+  </si>
+  <si>
+    <t>rp0123</t>
+  </si>
+  <si>
+    <t>rp0124</t>
+  </si>
+  <si>
+    <t>rp0125</t>
+  </si>
+  <si>
+    <t>rp0126</t>
+  </si>
+  <si>
+    <t>rp0127</t>
+  </si>
+  <si>
+    <t>rp0128</t>
+  </si>
+  <si>
+    <t>rp0129</t>
+  </si>
+  <si>
+    <t>rp0130</t>
+  </si>
+  <si>
+    <t>rp0131</t>
+  </si>
+  <si>
+    <t>rp0132</t>
+  </si>
+  <si>
+    <t>rp0133</t>
+  </si>
+  <si>
+    <t>rp0134</t>
+  </si>
+  <si>
+    <t>rp0135</t>
+  </si>
+  <si>
+    <t>rp0136</t>
+  </si>
+  <si>
+    <t>rp0137</t>
+  </si>
+  <si>
+    <t>rp0138</t>
+  </si>
+  <si>
+    <t>rp0139</t>
+  </si>
+  <si>
+    <t>rp0140</t>
+  </si>
+  <si>
+    <t>rp0141</t>
+  </si>
+  <si>
+    <t>rp0142</t>
+  </si>
+  <si>
+    <t>rp0143</t>
+  </si>
+  <si>
+    <t>rp0144</t>
+  </si>
+  <si>
+    <t>rp0145</t>
+  </si>
+  <si>
+    <t>rp0146</t>
+  </si>
+  <si>
+    <t>rp0147</t>
+  </si>
+  <si>
+    <t>rp0148</t>
+  </si>
+  <si>
+    <t>rp0149</t>
+  </si>
+  <si>
+    <t>rp0150</t>
+  </si>
+  <si>
+    <t>rp0151</t>
+  </si>
+  <si>
+    <t>rp0152</t>
+  </si>
+  <si>
+    <t>rp0153</t>
+  </si>
+  <si>
+    <t>rp0154</t>
+  </si>
+  <si>
+    <t>rp0155</t>
+  </si>
+  <si>
+    <t>rp0156</t>
+  </si>
+  <si>
+    <t>rp0157</t>
+  </si>
+  <si>
+    <t>rp0158</t>
+  </si>
+  <si>
+    <t>rp0159</t>
+  </si>
+  <si>
+    <t>rp0160</t>
+  </si>
+  <si>
+    <t>rp0161</t>
+  </si>
+  <si>
+    <t>rp0162</t>
+  </si>
+  <si>
+    <t>rp0163</t>
+  </si>
+  <si>
+    <t>rp0164</t>
+  </si>
+  <si>
+    <t>rp0165</t>
+  </si>
+  <si>
+    <t>rp0166</t>
+  </si>
+  <si>
+    <t>rp0167</t>
+  </si>
+  <si>
+    <t>rp0168</t>
+  </si>
+  <si>
+    <t>rp0169</t>
+  </si>
+  <si>
+    <t>rp0170</t>
+  </si>
+  <si>
+    <t>rp0171</t>
+  </si>
+  <si>
+    <t>rp0172</t>
+  </si>
+  <si>
+    <t>rp0173</t>
+  </si>
+  <si>
+    <t>rp0174</t>
+  </si>
+  <si>
+    <t>rp0175</t>
+  </si>
+  <si>
+    <t>rp0176</t>
+  </si>
+  <si>
+    <t>rp0177</t>
+  </si>
+  <si>
+    <t>rp0178</t>
+  </si>
+  <si>
+    <t>rp0179</t>
+  </si>
+  <si>
+    <t>rp0180</t>
+  </si>
+  <si>
+    <t>rp0181</t>
+  </si>
+  <si>
+    <t>rp0182</t>
+  </si>
+  <si>
+    <t>rp0183</t>
+  </si>
+  <si>
+    <t>rp0184</t>
+  </si>
+  <si>
+    <t>rp0185</t>
+  </si>
+  <si>
+    <t>rp0186</t>
+  </si>
+  <si>
+    <t>rp0187</t>
+  </si>
+  <si>
+    <t>rp0188</t>
+  </si>
+  <si>
+    <t>rp0189</t>
+  </si>
+  <si>
+    <t>rp0190</t>
+  </si>
+  <si>
+    <t>rp0191</t>
+  </si>
+  <si>
+    <t>rp0192</t>
+  </si>
+  <si>
+    <t>rp0193</t>
+  </si>
+  <si>
+    <t>rp0194</t>
+  </si>
+  <si>
+    <t>rp0195</t>
+  </si>
+  <si>
+    <t>rp0196</t>
+  </si>
+  <si>
+    <t>rp0197</t>
+  </si>
+  <si>
+    <t>rp0198</t>
+  </si>
+  <si>
+    <t>rp0199</t>
+  </si>
+  <si>
+    <t>rp0200</t>
+  </si>
+  <si>
+    <t>rp0201</t>
+  </si>
+  <si>
+    <t>rp0202</t>
+  </si>
+  <si>
+    <t>rp0203</t>
+  </si>
+  <si>
+    <t>rp0204</t>
+  </si>
+  <si>
+    <t>rp0205</t>
+  </si>
+  <si>
+    <t>rp0206</t>
+  </si>
+  <si>
+    <t>rp0207</t>
+  </si>
+  <si>
+    <t>rp0208</t>
+  </si>
+  <si>
+    <t>rp0209</t>
+  </si>
+  <si>
+    <t>rp0210</t>
+  </si>
+  <si>
+    <t>rp0211</t>
+  </si>
+  <si>
+    <t>rp0212</t>
+  </si>
+  <si>
+    <t>rp0213</t>
+  </si>
+  <si>
+    <t>rp0214</t>
+  </si>
+  <si>
+    <t>rp0215</t>
+  </si>
+  <si>
+    <t>rp0216</t>
+  </si>
+  <si>
+    <t>rp0217</t>
+  </si>
+  <si>
+    <t>rp0218</t>
+  </si>
+  <si>
+    <t>rp0219</t>
+  </si>
+  <si>
+    <t>rp0220</t>
+  </si>
+  <si>
+    <t>rp0221</t>
+  </si>
+  <si>
+    <t>rp0222</t>
+  </si>
+  <si>
+    <t>rp0223</t>
+  </si>
+  <si>
+    <t>rp0224</t>
+  </si>
+  <si>
+    <t>rp0225</t>
+  </si>
+  <si>
+    <t>rp0226</t>
+  </si>
+  <si>
+    <t>rp0227</t>
+  </si>
+  <si>
+    <t>rp0228</t>
+  </si>
+  <si>
+    <t>rp0229</t>
+  </si>
+  <si>
+    <t>rp0230</t>
+  </si>
+  <si>
+    <t>rp0231</t>
+  </si>
+  <si>
+    <t>rp0232</t>
+  </si>
+  <si>
+    <t>rp0233</t>
+  </si>
+  <si>
+    <t>rp0234</t>
+  </si>
+  <si>
+    <t>rp0235</t>
+  </si>
+  <si>
+    <t>rp0236</t>
+  </si>
+  <si>
+    <t>rp0237</t>
+  </si>
+  <si>
+    <t>rp0238</t>
+  </si>
+  <si>
+    <t>rp0239</t>
+  </si>
+  <si>
+    <t>rp0240</t>
+  </si>
+  <si>
+    <t>rp0241</t>
+  </si>
+  <si>
+    <t>rp0242</t>
+  </si>
+  <si>
+    <t>rp0243</t>
+  </si>
+  <si>
+    <t>rp0244</t>
+  </si>
+  <si>
+    <t>rp0245</t>
+  </si>
+  <si>
+    <t>rp0246</t>
+  </si>
+  <si>
+    <t>rp0247</t>
+  </si>
+  <si>
+    <t>rp0248</t>
+  </si>
+  <si>
+    <t>rp0249</t>
+  </si>
+  <si>
+    <t>rp0250</t>
+  </si>
+  <si>
+    <t>rp0251</t>
+  </si>
+  <si>
+    <t>rp0252</t>
+  </si>
+  <si>
+    <t>rp0253</t>
+  </si>
+  <si>
+    <t>rp0254</t>
+  </si>
+  <si>
+    <t>rp0255</t>
+  </si>
+  <si>
+    <t>rp0256</t>
+  </si>
+  <si>
+    <t>rp0257</t>
+  </si>
+  <si>
+    <t>rp0258</t>
+  </si>
+  <si>
+    <t>rp0259</t>
+  </si>
+  <si>
+    <t>rp0260</t>
+  </si>
+  <si>
+    <t>rp0261</t>
+  </si>
+  <si>
+    <t>rp0262</t>
+  </si>
+  <si>
+    <t>rp0263</t>
+  </si>
+  <si>
+    <t>rp0264</t>
+  </si>
+  <si>
+    <t>rp0265</t>
+  </si>
+  <si>
+    <t>rp0266</t>
+  </si>
+  <si>
+    <t>rp0267</t>
+  </si>
+  <si>
+    <t>rp0268</t>
+  </si>
+  <si>
+    <t>rp0269</t>
+  </si>
+  <si>
+    <t>rp0270</t>
+  </si>
+  <si>
+    <t>rp0271</t>
+  </si>
+  <si>
+    <t>rp0272</t>
+  </si>
+  <si>
+    <t>rp0273</t>
+  </si>
+  <si>
+    <t>rp0274</t>
+  </si>
+  <si>
+    <t>rp0275</t>
+  </si>
+  <si>
+    <t>rp0276</t>
+  </si>
+  <si>
+    <t>rp0277</t>
+  </si>
+  <si>
+    <t>rp0278</t>
+  </si>
+  <si>
+    <t>rp0279</t>
+  </si>
+  <si>
+    <t>rp0280</t>
+  </si>
+  <si>
+    <t>rp0281</t>
+  </si>
+  <si>
+    <t>rp0282</t>
+  </si>
+  <si>
+    <t>rp0283</t>
+  </si>
+  <si>
+    <t>rp0284</t>
+  </si>
+  <si>
+    <t>rp0285</t>
+  </si>
+  <si>
+    <t>rp0286</t>
+  </si>
+  <si>
+    <t>rp0287</t>
+  </si>
+  <si>
+    <t>rp0288</t>
+  </si>
+  <si>
+    <t>rp0289</t>
+  </si>
+  <si>
+    <t>rp0290</t>
+  </si>
+  <si>
+    <t>rp0291</t>
+  </si>
+  <si>
+    <t>rp0292</t>
+  </si>
+  <si>
+    <t>rp0293</t>
+  </si>
+  <si>
+    <t>rp0294</t>
+  </si>
+  <si>
+    <t>rp0295</t>
+  </si>
+  <si>
+    <t>rp0296</t>
+  </si>
+  <si>
+    <t>rp0297</t>
+  </si>
+  <si>
+    <t>rp0298</t>
+  </si>
+  <si>
+    <t>rp0299</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>State of Hawaii Emergency Operations Plan</t>
+  </si>
+  <si>
+    <t>Hawaii Emergency Management Agency</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Idaho Emergency Operations Plan</t>
+  </si>
+  <si>
+    <t>Bureau of Homeland Security</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Illinois Natural Hazard Mitigation Plan</t>
+  </si>
+  <si>
+    <t>Authority of the State of Illinois</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Strategy for Iowa Homeland Security and Emergency Management</t>
+  </si>
+  <si>
+    <t>Iowa Department of Homeland Security and Emergency Management</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kansas Response Plan</t>
+  </si>
+  <si>
+    <t>Adjutant General's Department Division of Emergency Management</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Kentucky Emergency Operations Plan</t>
+  </si>
+  <si>
+    <t>Commonwealth of Kentucky</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Maine State Hazard Mitigation Plan</t>
+  </si>
+  <si>
+    <t>Maine Emergency Management Agency</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Comprehensive Emergency Management Plan</t>
+  </si>
+  <si>
+    <t>Commonwealth of Massachusetts</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>State of Maryland 2016 Hazard Mitigation Plan</t>
+  </si>
+  <si>
+    <t>State of Maryland</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Mississippi Comprehensive Emergency Management Plan</t>
+  </si>
+  <si>
+    <t>State of Mississippi</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Missouri All-Hazard Emergency Planning Guidance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevention; preparedness </t>
+  </si>
+  <si>
+    <t>State Emergency Management Agency, Planning and Disaster Recovery Branch, Missouri</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>State of Montana Multi-Hazard Mitigation Plan and Statewide Hazard assessment</t>
+  </si>
+  <si>
+    <t>The State of Montana, Department of Military Affairs Disaster and Emergency Services</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>State of Nebraska Hazard Mitigation Plan</t>
+  </si>
+  <si>
+    <t>Nebraska Emergency Management Agency</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>State Comprehensive Emergency Management Plan</t>
+  </si>
+  <si>
+    <t>The state of Nevada, Governor's Office</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>State of New Hampshire Multi-Hazard Mitigation Plan</t>
+  </si>
+  <si>
+    <t>New Hampshire Department and Safety, Homeland Security and Emergency Management</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>New Jersey State Hazard Mitigation plan</t>
+  </si>
+  <si>
+    <t>New Jersey Office of Emergency Management-Recovery Bureau; Mitigation Core Team, State Hazard Mitigation Team</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>State of New Mexico All-Hazard emergency Operations Plan</t>
+  </si>
+  <si>
+    <t>New Mexico Department of Homeland Security and Emergency Management</t>
+  </si>
+  <si>
+    <t>New York State</t>
+  </si>
+  <si>
+    <t>New York State Comprehensive Emergency Management Plan</t>
+  </si>
+  <si>
+    <t>New York State Disaster Preparedness Commission</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>North Carolina Emergency Operations Plan</t>
+  </si>
+  <si>
+    <t>North Carolina Emergency Management, Department of Public Safety</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>State of Ohio Hazard Mitigation Plan</t>
+  </si>
+  <si>
+    <t>State of Ohio</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Standard Hazard Mitigation Plan update for the great state of Oklahoma</t>
+  </si>
+  <si>
+    <t>State of Ohklahoma</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>State of Oregon Emergency Operations Management Plan</t>
+  </si>
+  <si>
+    <t>Oregon Office of Emergency Management</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>State Emergency Operations Plan</t>
+  </si>
+  <si>
+    <t>Pennsyvania Emergency Management Agency</t>
+  </si>
+  <si>
+    <t>not assigned</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>Rhode Island Hazard Mitigation Plan</t>
+  </si>
+  <si>
+    <t>Rhode Island Emergency Management Agency</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>South Carolina Emergency Operations Plan</t>
+  </si>
+  <si>
+    <t>State of South Carolina</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>State Hazard Mitigation Plan</t>
+  </si>
+  <si>
+    <t>Tennessee Emergency Management Agency, Department of Military</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>State of Texas Emergency Management Plan</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>State of Utah's Hazard Mitigation Plan</t>
+  </si>
+  <si>
+    <t>State of Utah</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>State of Vermonth Emergency Operations Plan</t>
+  </si>
+  <si>
+    <t>State of Vermonth Division of Emergency Management and Homeland Security</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commonwealth of Virginia Emergency Operations Plan </t>
+  </si>
+  <si>
+    <t>Virginia Department of Emergency Management</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Washington State Comprehensive Emergency Management Plan</t>
+  </si>
+  <si>
+    <t>Washington Military Department Emergency Management Division</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>West Virginia Statewide Standard Hazard Mitigation Plan Update</t>
+  </si>
+  <si>
+    <t>Division of Homeland Security and Emergency Mangement, West Virginia</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Wisconsin Emergency Response Plan</t>
+  </si>
+  <si>
+    <t>Wyoming State Mitigation Plan</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Wyoming Office of Homeland Security</t>
+  </si>
+  <si>
+    <t>National Disaster Recovery Framework</t>
+  </si>
+  <si>
+    <t>recovery</t>
+  </si>
+  <si>
+    <t>US Homeland Security</t>
+  </si>
+  <si>
+    <t>National Response Framework</t>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>National Protection Framework</t>
+  </si>
+  <si>
+    <t>National Prevention Framework</t>
+  </si>
+  <si>
+    <t>prevention</t>
+  </si>
+  <si>
+    <t>National Mitigation Framework</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Angola Disaster Emergency Framework</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Programme d' action national d'adaptation aux changements climatiques du Benin (PANA-Benin)</t>
+  </si>
+  <si>
+    <t>Ministere de l'environmement et de la protection de la nature (MEPN)</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>National Policy on Disaster Management</t>
+  </si>
+  <si>
+    <t>Republic of Botswana</t>
+  </si>
+  <si>
+    <t>National Disaster Risk Management Plan</t>
+  </si>
+  <si>
+    <t>National Disaster Management Office, Office of the President</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Plan National Multi-risques de preparation et de reponse aux catastrophes</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>Gouvernement du Burkina Faso</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Plan National d'Adaptation aux Changements Climatiques du Cameroun</t>
+  </si>
+  <si>
+    <t>Republique du Cameroun, Ministere de l'environment de la Protection de la Nature et du Development Durable</t>
+  </si>
+  <si>
+    <t>National Adaptaion Programme of  Action (NAPA) on Climate Change</t>
+  </si>
+  <si>
+    <t>Republic of Cape Verde, Ministry of Environment and Agriculture</t>
+  </si>
+  <si>
+    <t>Republique Centrale Africaine</t>
+  </si>
+  <si>
+    <t>Programme d'Action National d' Adaptation (PANA)</t>
+  </si>
+  <si>
+    <t>Ministere des Eaux, Forets, Chasse et Peche et de l' Environnnement, Republique Centrale Africaine</t>
+  </si>
+  <si>
+    <t>Republique du Tchad</t>
+  </si>
+  <si>
+    <t>Union of the Comoros</t>
+  </si>
+  <si>
+    <t>National Action Programme of Adaptation to Climate Change (NAPA)</t>
+  </si>
+  <si>
+    <t>Ministry of Rural Development, Fisheries, Handicraft and Environment, Union of the Comoros</t>
+  </si>
+  <si>
+    <t>Republique Democratique du Congo</t>
+  </si>
+  <si>
+    <t>Plan d'organisation de secours du Tchad</t>
+  </si>
+  <si>
+    <t>Plan d'organisation de secours en cas de catastrophe (Plan ORSEC)</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Country status report for the World Summit for Disaster Prevention, Hyogo, Japan</t>
+  </si>
+  <si>
+    <t>Republique de Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>National Strategy for Disaster Risk Reduction 2030</t>
+  </si>
+  <si>
+    <t>The Cabinet of Egypt, Information and Decision Support Center, Crisis Management and DRR sector</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>National Adaptation Programme of Action, State of Eritrea</t>
+  </si>
+  <si>
+    <t>Ministry of Land, Water and Environment, Department of Environment, State of Eritrea</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>National Policy and Strategy on Disaster Risk Management</t>
+  </si>
+  <si>
+    <t>Federal Democratic Republic of Ethiopia</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>National Disaster Management Policy</t>
+  </si>
+  <si>
+    <t>The Government of the Republic of the Gambia</t>
+  </si>
+  <si>
+    <t>Republique de Guinee</t>
+  </si>
+  <si>
+    <t>Plan d'Action National d'Adaptation aux changements Climatiques (PANA) de la republique de Guinee</t>
+  </si>
+  <si>
+    <t>Ministere de l' agriculture, de l' elevage, de l'environnement, des eaux et forets, Conseil National de l'environnement</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>National Programme of Action of Adaptation to Climate Changes</t>
+  </si>
+  <si>
+    <t>Ministry of Natural Resources and Environment, Government of Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>National Policy for Disaster Management in Kenya</t>
+  </si>
+  <si>
+    <t>Government of Kenya, Ministry of State for Special Programmes, Office of the President</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Lesotho's National Adaptation Programme of Action (NAPA) on Climate Change</t>
+  </si>
+  <si>
+    <t>Ministry of Natural Resources, Lesotho Meteorological Services</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>National Disaster Management Agency, Republic of Liberia</t>
+  </si>
+  <si>
+    <t>Magadascar</t>
+  </si>
+  <si>
+    <t>Politique Nationale de gestion des risques et des catastrophes</t>
+  </si>
+  <si>
+    <t>Ministere de l' Interieur et de la Reforme Administrative, Republique de Magadascar</t>
+  </si>
+  <si>
+    <t>Programme d' action national d'adaptation au changement climatique</t>
+  </si>
+  <si>
+    <t>Ministere de l'Environnement, des Eaux et Forets, Direction Generale de l' Environnement</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programme d' action national d'adaptation aux changements climatiques </t>
+  </si>
+  <si>
+    <t>Ministere de l'Equipement et des Transports, Direction nationale de la Meteorologie</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>National Adaptation Programme of Action to Climate Change (NAPA-RIM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Rural Development and of Environement, Department of the Environment Project Coordination Unit, Islamic Republic of Mauritania </t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>National Disaster Risk Reduction and Management Centre, National Disasters Scheme</t>
+  </si>
+  <si>
+    <t>Ministry of Environemtn, Sustainable Development and Disaster and Beach Management, Republic of Mauritius</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>National Adapation Programme of Action (NAPA)</t>
+  </si>
+  <si>
+    <t>Ministry for the Coordination of Environmental Affairs (MICOA)</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>National Disaster Risk Management Policy</t>
+  </si>
+  <si>
+    <t>Republic of Namibia</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>National Adaptation Programme of Action</t>
+  </si>
+  <si>
+    <t>Republic of Niger, Prime Minister's office</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>National Disaster Response Plan for Nigeria</t>
+  </si>
+  <si>
+    <t>Gederal Government of Nigeria</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>The National Disaster Management Policy</t>
+  </si>
+  <si>
+    <t>Republic of Rwanda, Ministry of Disaster Management and refugee affairs</t>
+  </si>
+  <si>
+    <t>Sao Tome e Principe</t>
+  </si>
+  <si>
+    <t>National Adaptation Programmes of action on Climate Change - Sao Tome e Principe</t>
+  </si>
+  <si>
+    <t>Ministerio dos Recursos Naturais e Ambiente, Republica Democratica de S. Tome e Principe</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Plan d'Action National d'Adaptation aux changements Climatiques</t>
+  </si>
+  <si>
+    <t>Ministere de l'Environnement et de la Protection de la Nature, Republique du Senegal</t>
+  </si>
+  <si>
+    <t>Disaster Risk Management Act, 2014</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Seychelles </t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>National Adaptation Programme of Action (NAPA)</t>
+  </si>
+  <si>
+    <t>Government of Sierra Leone, Ministry of Transport and Aviation</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Guidance on development and structure of a Disaster Management Plan</t>
+  </si>
+  <si>
+    <t>Department of Co-Operative Governance and Traditional Affairs, National Disaster Management Centre</t>
+  </si>
+  <si>
+    <t>Disaster Management Act</t>
+  </si>
+  <si>
+    <t>United Republic of Tanzania</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Division of Environment, United Republic of Tanzania</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Plan National d'Adaptation aux Changements Climatiques du togo (PNACC)</t>
+  </si>
+  <si>
+    <t>Republique Togolaise</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>The National Policy for Disaster Preparedness and Management</t>
+  </si>
+  <si>
+    <t>Directorate of Relief, Disaster Preparedness and Refugees, Office of the Prime Minister, The Republic of Uganda</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Sendai Framework for Disaster Risk Reduction (2015-2030)</t>
+  </si>
+  <si>
+    <t>United Nations</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>National Adaptation Plan</t>
+  </si>
+  <si>
+    <t>Ministry of Environment, Natural Resources and Physical Development, Republic of the Sudan</t>
+  </si>
+  <si>
+    <t>National Information on Disaster Risk Reduction</t>
+  </si>
+  <si>
+    <t>Directorate for Civil Emergency Planning and Coordination</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>SKKM Strategie 2020</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>Republic of Austria</t>
+  </si>
+  <si>
+    <t>Richtlinie Fur das Fuhren im Katastropheneinsatz</t>
+  </si>
+  <si>
+    <t>National Information provided by Austria in preparation for the World Conference on Disaster Reduction (Hyogo)</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Permanent Mission of the Republic of Belarus to the United Nations Office</t>
+  </si>
+  <si>
+    <t>Strategy for Disaster Reduction - National Information provided  in preparation for the World Conference on Disaster Reduction (Hyogo)</t>
+  </si>
+  <si>
+    <t>National Information provided by Belgium  in preparation for the World Conference on Disaster Reduction (Hyogo)</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Republic of Belgium</t>
+  </si>
+  <si>
+    <t>Belgian National Adaptation Plan</t>
+  </si>
+  <si>
+    <t>National Climate commission</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Assessment of the Disaster Risk Management Sector</t>
+  </si>
+  <si>
+    <t>Republic of Bulgaria</t>
+  </si>
+  <si>
+    <t>National Information provided by Bulgaria  in preparation for the World Conference on Disaster Reduction (Hyogo)</t>
+  </si>
+  <si>
+    <t>bg</t>
+  </si>
+  <si>
+    <t>National Information provided by Bulgaria  in preparation for the World Conference on Disaster Reduction (Hyogo) - score card</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Strategic Climate adaptation plan (Nacrt Akcikskog Plana za Provedbu Strategije Prilagodbe Klimatskim Promjenama U Republici Hvatskoj za Razdoblje od 2019 do 2023. Godine)</t>
+  </si>
+  <si>
+    <t>hr</t>
+  </si>
+  <si>
+    <t>Republic of Croatia</t>
+  </si>
+  <si>
+    <t>National Information provided by Croatia  in preparation for the World Conference on Disaster Reduction (Hyogo)</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Review on the implementation of the 2030 Agenda in Cyprus</t>
+  </si>
+  <si>
+    <t>Republic of Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Strategy on Adaptation to climate Change in the Czech Republic</t>
+  </si>
+  <si>
+    <t>National Report on the Implemention of the 2030 Agenda for Sustainable Development</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Crisis Management in Denmark</t>
+  </si>
+  <si>
+    <t>Republic of Denmark</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Emergency Preparedness of Estonia</t>
+  </si>
+  <si>
+    <t>Republic of Estonia, National Audit Office</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Building Resilience to disasters: Assessing the implementation of the Hyogo Framework for Action (2005-2015)</t>
+  </si>
+  <si>
+    <t>Republic of Finland</t>
+  </si>
+  <si>
+    <t>Country report on Disaster Risk Reduction</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>French Republic</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>The Crisis management system in Germany</t>
+  </si>
+  <si>
+    <t>Federal Democratic Republic of Germany</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>National Information provided by France  in preparation for the World Conference on Disaster Reduction (Hyogo)</t>
+  </si>
+  <si>
+    <t>National Information provided by Greece  in preparation for the World Conference on Disaster Reduction (Hyogo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hellenic Republic </t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>National Information provided by Hungary  in preparation for the World Conference on Disaster Reduction (Hyogo)</t>
+  </si>
+  <si>
+    <t>Republic of Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Icelands Climate Change Strategy</t>
+  </si>
+  <si>
+    <t>Republic of Iceland</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>National Development Plan</t>
+  </si>
+  <si>
+    <t>Republic of Ireland</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Disaster Risk Reduction Strategy and Plan of Action (2016-2020)</t>
+  </si>
+  <si>
+    <t>Republic of Kosovo</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>National Information provided by Lithuania in preparation for the World Conference on Disaster Reduction (Hyogo)</t>
+  </si>
+  <si>
+    <t>Republic of Lithuania</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>National Information provided by Malta in preparation for the World Conference on Disaster Reduction (Sendai)</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>National Information provided by Monaco in preparation for the World Conference on Disaster Reduction (Hyogo)</t>
+  </si>
+  <si>
+    <t>Republic of Malta</t>
+  </si>
+  <si>
+    <t>Principality of Monaco</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>National Information provided by Montenegro in preparation for the World Conference on Disaster Reduction (Hyogo)</t>
+  </si>
+  <si>
+    <t>Republic of Montenegro</t>
+  </si>
+  <si>
+    <t>National Water Plan (2016-2021)</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Kingdom of the Netherlands</t>
+  </si>
+  <si>
+    <t>National Adaptation Framework, Planning for a climate resilient island</t>
+  </si>
+  <si>
+    <t>preparedness</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>National Report regarding the Disasters Prevention in Romania</t>
+  </si>
+  <si>
+    <t>Ministry of Administration and Interior, Republic of Romania</t>
+  </si>
+  <si>
+    <t>National Report of the Russian Federation at the Workld Conference on Disaster Reduction</t>
+  </si>
+  <si>
+    <t>Ministry of Emergencies of Russia</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>National Information provided by  Slovakia in preparation for the World Conference on Disaster Reduction (Hyogo)</t>
+  </si>
+  <si>
+    <t>Republic of Slovakia</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>National Information provided by  Spain in preparation for the World Conference on Disaster Reduction (Hyogo)</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>Republic of Spain</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Action Plan (2013-2015) Swedish National Platform for Disaster Risk Reduction</t>
+  </si>
+  <si>
+    <t>Swedish Civil Contigencies Agency</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Emergency Response and Recovery, non-statutory guidance accompanying the Civil Contigencies Act 2004</t>
+  </si>
+  <si>
+    <t>HM Government</t>
+  </si>
+  <si>
+    <t>01/04/208</t>
+  </si>
+  <si>
+    <t>Fire and Rescue National Framework for England</t>
+  </si>
+  <si>
+    <t>Home Office</t>
+  </si>
+  <si>
+    <t>The property Flood Resilience Action Plan</t>
+  </si>
+  <si>
+    <t>Department for Environment Food and Rural Affairs</t>
+  </si>
+  <si>
+    <t>Sector Resilience Plans for Critical Infrastructure (2010-2011)</t>
+  </si>
+  <si>
+    <t>prevention; preparedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabinet Office </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,8 +2190,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,6 +2230,17 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -333,10 +2251,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -365,8 +2284,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -645,40 +2577,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E136" sqref="E136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="4"/>
+    <col min="2" max="2" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="43" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="43" style="7" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="56.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="56.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="43" style="7" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="2"/>
+    <col min="18" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>11</v>
@@ -720,13 +2652,13 @@
         <v>38</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -758,7 +2690,7 @@
         <v>31</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>57</v>
@@ -773,13 +2705,13 @@
         <v>32</v>
       </c>
       <c r="P2" s="5">
-        <v>43563</v>
+        <v>43636</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -811,10 +2743,10 @@
         <v>51</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>35</v>
@@ -826,13 +2758,13 @@
         <v>54</v>
       </c>
       <c r="P3" s="5">
-        <v>43563</v>
+        <v>43636</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -864,10 +2796,10 @@
         <v>55</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>35</v>
@@ -879,13 +2811,13 @@
         <v>59</v>
       </c>
       <c r="P4" s="5">
-        <v>43318</v>
+        <v>43636</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -914,28 +2846,28 @@
         <v>41518</v>
       </c>
       <c r="J5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="P5" s="5">
-        <v>43382</v>
+        <v>43636</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -964,28 +2896,28 @@
         <v>43009</v>
       </c>
       <c r="J6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="P6" s="5">
-        <v>43439</v>
+        <v>43636</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1014,28 +2946,28 @@
         <v>42675</v>
       </c>
       <c r="J7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="P7" s="5">
-        <v>43324</v>
+        <v>43636</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1064,28 +2996,28 @@
         <v>41883</v>
       </c>
       <c r="J8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="P8" s="5">
-        <v>43328</v>
+        <v>43636</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1114,10 +3046,10 @@
         <v>41883</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>57</v>
@@ -1126,16 +3058,16 @@
         <v>35</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P9" s="5">
-        <v>43333</v>
+        <v>43636</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1164,28 +3096,28 @@
         <v>43131</v>
       </c>
       <c r="J10" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="P10" s="5">
-        <v>43338</v>
+        <v>43636</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1214,28 +3146,7492 @@
         <v>43417</v>
       </c>
       <c r="J11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="P11" s="5">
-        <v>43339</v>
+        <v>43636</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>60</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2017</v>
+      </c>
+      <c r="I12" s="5">
+        <v>42856</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="P12" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2015</v>
+      </c>
+      <c r="I13" s="5">
+        <v>42186</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="P13" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2013</v>
+      </c>
+      <c r="I14" s="5">
+        <v>41548</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="P14" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2018</v>
+      </c>
+      <c r="I15" s="5">
+        <v>43101</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="P15" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2017</v>
+      </c>
+      <c r="I16" s="5">
+        <v>42736</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="P16" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2014</v>
+      </c>
+      <c r="I17" s="5">
+        <v>41852</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="P17" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2013</v>
+      </c>
+      <c r="I18" s="5">
+        <v>41275</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="P18" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2017</v>
+      </c>
+      <c r="I19" s="5">
+        <v>42767</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="P19" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2016</v>
+      </c>
+      <c r="I20" s="5">
+        <v>42583</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="P20" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H21" s="4">
+        <v>2017</v>
+      </c>
+      <c r="I21" s="5">
+        <v>43070</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="P21" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H22" s="4">
+        <v>2013</v>
+      </c>
+      <c r="I22" s="5">
+        <v>41609</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="P22" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2013</v>
+      </c>
+      <c r="I23" s="5">
+        <v>41579</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="P23" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H24" s="4">
+        <v>2014</v>
+      </c>
+      <c r="I24" s="5">
+        <v>41768</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="P24" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H25" s="4">
+        <v>2014</v>
+      </c>
+      <c r="I25" s="5">
+        <v>41640</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="P25" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="H26" s="4">
+        <v>2013</v>
+      </c>
+      <c r="I26" s="5">
+        <v>41571</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="P26" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="H27" s="4">
+        <v>2014</v>
+      </c>
+      <c r="I27" s="5">
+        <v>41640</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="P27" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="H28" s="4">
+        <v>2016</v>
+      </c>
+      <c r="I28" s="5">
+        <v>42705</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="P28" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="H29" s="4">
+        <v>2018</v>
+      </c>
+      <c r="I29" s="5">
+        <v>43435</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="P29" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="H30" s="4">
+        <v>2016</v>
+      </c>
+      <c r="I30" s="5">
+        <v>42370</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="P30" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="H31" s="4">
+        <v>2014</v>
+      </c>
+      <c r="I31" s="5">
+        <v>41760</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="P31" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H32" s="4">
+        <v>2014</v>
+      </c>
+      <c r="I32" s="5">
+        <v>41680</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="P32" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H33" s="4">
+        <v>2017</v>
+      </c>
+      <c r="I33" s="5">
+        <v>42826</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="P33" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H34" s="4">
+        <v>2015</v>
+      </c>
+      <c r="I34" s="5">
+        <v>42036</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="P34" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="H35" s="4">
+        <v>2014</v>
+      </c>
+      <c r="I35" s="5">
+        <v>41640</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="P35" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="H36" s="4">
+        <v>2018</v>
+      </c>
+      <c r="I36" s="5">
+        <v>43199</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="P36" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H37" s="4">
+        <v>2013</v>
+      </c>
+      <c r="I37" s="5">
+        <v>41547</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="P37" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="H38" s="4">
+        <v>2012</v>
+      </c>
+      <c r="I38" s="5">
+        <v>41030</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P38" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H39" s="4">
+        <v>2016</v>
+      </c>
+      <c r="I39" s="5">
+        <v>42370</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="P39" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="H40" s="4">
+        <v>2015</v>
+      </c>
+      <c r="I40" s="5">
+        <v>42248</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="P40" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H41" s="4">
+        <v>2015</v>
+      </c>
+      <c r="I41" s="5">
+        <v>42064</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="P41" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="H42" s="4">
+        <v>2016</v>
+      </c>
+      <c r="I42" s="5">
+        <v>42370</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="P42" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="H43" s="4">
+        <v>2013</v>
+      </c>
+      <c r="I43" s="5">
+        <v>41275</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="P43" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="H44" s="4">
+        <v>2017</v>
+      </c>
+      <c r="I44" s="5">
+        <v>43040</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P44" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q44" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="H45" s="4">
+        <v>2016</v>
+      </c>
+      <c r="I45" s="5">
+        <v>42370</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="P45" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" s="4">
+        <v>2016</v>
+      </c>
+      <c r="I46" s="5">
+        <v>42522</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="P46" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" s="4">
+        <v>2016</v>
+      </c>
+      <c r="I47" s="5">
+        <v>42522</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="P47" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" s="4">
+        <v>2016</v>
+      </c>
+      <c r="I48" s="5">
+        <v>42522</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="P48" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" s="4">
+        <v>2016</v>
+      </c>
+      <c r="I49" s="5">
+        <v>42522</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="P49" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" s="4">
+        <v>2016</v>
+      </c>
+      <c r="I50" s="5">
+        <v>42522</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="P50" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" s="11">
+        <v>43563</v>
+      </c>
+      <c r="J51" s="12"/>
+      <c r="P51" s="11">
+        <v>43636</v>
+      </c>
+      <c r="Q51" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="H52" s="4">
+        <v>2008</v>
+      </c>
+      <c r="I52" s="5">
+        <v>39488</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P52" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q52" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="H53" s="4">
+        <v>2008</v>
+      </c>
+      <c r="I53" s="5">
+        <v>39448</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="P53" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q53" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="H54" s="4">
+        <v>1996</v>
+      </c>
+      <c r="I54" s="5">
+        <v>35278</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="P54" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q54" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B55" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="H55" s="4">
+        <v>2009</v>
+      </c>
+      <c r="I55" s="5">
+        <v>40087</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="P55" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q55" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B56" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="H56" s="4">
+        <v>2009</v>
+      </c>
+      <c r="I56" s="5">
+        <v>39814</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="P56" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q56" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="H57" s="4">
+        <v>2015</v>
+      </c>
+      <c r="I57" s="5">
+        <v>42179</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="P57" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q57" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="H58" s="4">
+        <v>2007</v>
+      </c>
+      <c r="I58" s="5">
+        <v>39417</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="P58" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q58" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M59" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="P59" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q59" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="H60" s="4">
+        <v>2014</v>
+      </c>
+      <c r="I60" s="5">
+        <v>41944</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M60" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="P60" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q60" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="H61" s="4">
+        <v>2006</v>
+      </c>
+      <c r="I61" s="5">
+        <v>38777</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="P61" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q61" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="H62" s="4">
+        <v>2012</v>
+      </c>
+      <c r="I62" s="5">
+        <v>40969</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="P62" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q62" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="H63" s="4">
+        <v>2005</v>
+      </c>
+      <c r="I63" s="5">
+        <v>38370</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L63" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M63" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="P63" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q63" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B64" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="H64" s="4">
+        <v>2017</v>
+      </c>
+      <c r="I64" s="5">
+        <v>42826</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L64" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M64" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="P64" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q64" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B65" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="H65" s="4">
+        <v>2007</v>
+      </c>
+      <c r="I65" s="5">
+        <v>39173</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L65" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M65" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="P65" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q65" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="H66" s="4">
+        <v>2009</v>
+      </c>
+      <c r="I66" s="5">
+        <v>39873</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="P66" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q66" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="H67" s="4">
+        <v>2007</v>
+      </c>
+      <c r="I67" s="5">
+        <v>39264</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M67" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="P67" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q67" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="H68" s="4">
+        <v>2007</v>
+      </c>
+      <c r="I68" s="5">
+        <v>39264</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L68" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M68" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="P68" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q68" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="H69" s="4">
+        <v>2006</v>
+      </c>
+      <c r="I69" s="5">
+        <v>39052</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L69" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M69" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="P69" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q69" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B70" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="H70" s="4">
+        <v>2009</v>
+      </c>
+      <c r="I70" s="5">
+        <v>39845</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M70" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="P70" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q70" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B71" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="H71" s="4">
+        <v>2007</v>
+      </c>
+      <c r="I71" s="5">
+        <v>39083</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L71" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M71" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="P71" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q71" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="H72" s="4">
+        <v>2012</v>
+      </c>
+      <c r="I72" s="5">
+        <v>41183</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L72" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M72" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="P72" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q72" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="H73" s="4">
+        <v>2005</v>
+      </c>
+      <c r="I73" s="5">
+        <v>38353</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L73" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M73" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="P73" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q73" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="H74" s="4">
+        <v>2007</v>
+      </c>
+      <c r="I74" s="5">
+        <v>39083</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M74" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="P74" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q74" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="H75" s="4">
+        <v>2007</v>
+      </c>
+      <c r="I75" s="5">
+        <v>39083</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M75" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="P75" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q75" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="H76" s="4">
+        <v>2004</v>
+      </c>
+      <c r="I76" s="5">
+        <v>38292</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L76" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M76" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="P76" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q76" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="H77" s="4">
+        <v>2015</v>
+      </c>
+      <c r="I77" s="5">
+        <v>42005</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L77" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M77" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="P77" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q77" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="H78" s="4">
+        <v>2007</v>
+      </c>
+      <c r="I78" s="5">
+        <v>39420</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L78" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M78" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="P78" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q78" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B79" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="H79" s="4">
+        <v>2007</v>
+      </c>
+      <c r="I79" s="5">
+        <v>39083</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L79" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M79" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="P79" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q79" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="H80" s="4">
+        <v>2006</v>
+      </c>
+      <c r="I80" s="5">
+        <v>38930</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L80" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M80" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="P80" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q80" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B81" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="H81" s="4">
+        <v>2008</v>
+      </c>
+      <c r="I81" s="5">
+        <v>39448</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L81" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M81" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="P81" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q81" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B82" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="H82" s="4">
+        <v>2012</v>
+      </c>
+      <c r="I82" s="5">
+        <v>41061</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L82" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M82" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="P82" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q82" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="H83" s="4">
+        <v>2006</v>
+      </c>
+      <c r="I83" s="5">
+        <v>39052</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L83" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M83" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N83" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="P83" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q83" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B84" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="H84" s="4">
+        <v>2006</v>
+      </c>
+      <c r="I84" s="5">
+        <v>38718</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L84" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M84" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="P84" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q84" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B85" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="H85" s="4">
+        <v>2014</v>
+      </c>
+      <c r="I85" s="5">
+        <v>41869</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L85" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M85" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N85" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="P85" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q85" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B86" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="H86" s="4">
+        <v>2007</v>
+      </c>
+      <c r="I86" s="5">
+        <v>39417</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L86" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M86" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N86" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="P86" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q86" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B87" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="H87" s="4">
+        <v>2017</v>
+      </c>
+      <c r="I87" s="5">
+        <v>42835</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L87" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M87" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N87" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="P87" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q87" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B88" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="H88" s="4">
+        <v>2016</v>
+      </c>
+      <c r="I88" s="5">
+        <v>42552</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L88" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M88" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="P88" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q88" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B89" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="H89" s="4">
+        <v>2015</v>
+      </c>
+      <c r="I89" s="5">
+        <v>42135</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L89" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M89" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="P89" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q89" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B90" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="H90" s="4">
+        <v>2007</v>
+      </c>
+      <c r="I90" s="5">
+        <v>39083</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L90" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M90" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="P90" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q90" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B91" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="H91" s="4">
+        <v>2012</v>
+      </c>
+      <c r="I91" s="5">
+        <v>40909</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L91" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M91" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="N91" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="P91" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q91" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B92" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="H92" s="4">
+        <v>2010</v>
+      </c>
+      <c r="I92" s="5">
+        <v>40422</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L92" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M92" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N92" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="P92" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q92" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B93" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="H93" s="4">
+        <v>2015</v>
+      </c>
+      <c r="I93" s="5">
+        <v>42005</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L93" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M93" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N93" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="P93" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q93" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B94" s="5">
+        <v>43563</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="H94" s="4">
+        <v>2005</v>
+      </c>
+      <c r="I94" s="5">
+        <v>38353</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="K94" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L94" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M94" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N94" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="P94" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q94" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B95" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="H95" s="4">
+        <v>2009</v>
+      </c>
+      <c r="I95" s="5">
+        <v>39995</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L95" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M95" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="N95" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="P95" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q95" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B96" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="H96" s="4">
+        <v>2006</v>
+      </c>
+      <c r="I96" s="5">
+        <v>39066</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="K96" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L96" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M96" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="N96" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="P96" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q96" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B97" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="H97" s="4">
+        <v>2005</v>
+      </c>
+      <c r="I97" s="5">
+        <v>38374</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L97" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M97" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N97" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="P97" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q97" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B98" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="H98" s="4">
+        <v>2015</v>
+      </c>
+      <c r="I98" s="5">
+        <v>42022</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L98" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M98" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N98" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="P98" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q98" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B99" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="H99" s="4">
+        <v>2005</v>
+      </c>
+      <c r="I99" s="5">
+        <v>42022</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L99" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M99" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="N99" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="P99" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q99" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B100" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="H100" s="4">
+        <v>2016</v>
+      </c>
+      <c r="I100" s="5">
+        <v>42370</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="K100" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L100" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M100" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N100" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="P100" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q100" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B101" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="H101" s="4">
+        <v>2018</v>
+      </c>
+      <c r="I101" s="5">
+        <v>42852</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L101" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M101" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N101" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="P101" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q101" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B102" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="H102" s="4">
+        <v>2005</v>
+      </c>
+      <c r="I102" s="5">
+        <v>38370</v>
+      </c>
+      <c r="J102" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="K102" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L102" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M102" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="N102" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="P102" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q102" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B103" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="H103" s="4">
+        <v>2005</v>
+      </c>
+      <c r="I103" s="5">
+        <v>38370</v>
+      </c>
+      <c r="J103" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L103" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M103" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="N103" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="P103" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q103" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" ht="64" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B104" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="H104" s="4">
+        <v>2017</v>
+      </c>
+      <c r="I104" s="5">
+        <v>42736</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L104" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M104" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="N104" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="P104" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q104" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B105" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="H105" s="4">
+        <v>2005</v>
+      </c>
+      <c r="I105" s="5">
+        <v>38370</v>
+      </c>
+      <c r="J105" s="13" t="s">
+        <v>634</v>
+      </c>
+      <c r="K105" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L105" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M105" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N105" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="P105" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q105" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B106" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="H106" s="4">
+        <v>2017</v>
+      </c>
+      <c r="I106" s="5">
+        <v>42736</v>
+      </c>
+      <c r="J106" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="K106" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L106" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M106" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N106" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="P106" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q106" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B107" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="H107" s="4">
+        <v>2015</v>
+      </c>
+      <c r="I107" s="5">
+        <v>42303</v>
+      </c>
+      <c r="J107" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="K107" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L107" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M107" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N107" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="P107" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q107" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B108" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="H108" s="4">
+        <v>2017</v>
+      </c>
+      <c r="I108" s="5">
+        <v>42736</v>
+      </c>
+      <c r="J108" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="K108" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L108" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M108" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N108" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="P108" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q108" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B109" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="H109" s="4">
+        <v>2017</v>
+      </c>
+      <c r="I109" s="5">
+        <v>42736</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="K109" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L109" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M109" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N109" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="P109" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q109" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B110" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="H110" s="4">
+        <v>2018</v>
+      </c>
+      <c r="I110" s="5">
+        <v>43285</v>
+      </c>
+      <c r="J110" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="K110" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L110" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M110" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N110" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="P110" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q110" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B111" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="H111" s="4">
+        <v>2014</v>
+      </c>
+      <c r="I111" s="5">
+        <v>41640</v>
+      </c>
+      <c r="J111" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="K111" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L111" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M111" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N111" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="P111" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q111" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B112" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="H112" s="4">
+        <v>2004</v>
+      </c>
+      <c r="I112" s="5">
+        <v>38222</v>
+      </c>
+      <c r="J112" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="K112" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L112" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M112" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N112" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="P112" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q112" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B113" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="H113" s="4">
+        <v>2005</v>
+      </c>
+      <c r="I113" s="5">
+        <v>38370</v>
+      </c>
+      <c r="J113" s="13" t="s">
+        <v>657</v>
+      </c>
+      <c r="K113" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L113" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M113" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="N113" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="P113" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q113" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B114" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="H114" s="4">
+        <v>2015</v>
+      </c>
+      <c r="I114" s="5">
+        <v>42339</v>
+      </c>
+      <c r="J114" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="K114" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L114" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M114" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N114" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="P114" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q114" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B115" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="H115" s="4">
+        <v>2005</v>
+      </c>
+      <c r="I115" s="5">
+        <v>38370</v>
+      </c>
+      <c r="J115" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="K115" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L115" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M115" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N115" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="P115" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q115" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B116" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="H116" s="4">
+        <v>2004</v>
+      </c>
+      <c r="I116" s="5">
+        <v>37987</v>
+      </c>
+      <c r="J116" s="13" t="s">
+        <v>661</v>
+      </c>
+      <c r="K116" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L116" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M116" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N116" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="P116" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q116" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B117" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="H117" s="4">
+        <v>2007</v>
+      </c>
+      <c r="I117" s="5">
+        <v>39114</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="K117" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L117" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M117" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N117" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="P117" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q117" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B118" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="H118" s="4">
+        <v>2017</v>
+      </c>
+      <c r="I118" s="5">
+        <v>42736</v>
+      </c>
+      <c r="J118" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="K118" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L118" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M118" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N118" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="P118" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q118" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B119" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="H119" s="4">
+        <v>2015</v>
+      </c>
+      <c r="I119" s="5">
+        <v>42005</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="K119" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L119" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M119" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N119" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="P119" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q119" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B120" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="H120" s="4">
+        <v>2005</v>
+      </c>
+      <c r="I120" s="5">
+        <v>38370</v>
+      </c>
+      <c r="J120" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="K120" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L120" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M120" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N120" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="P120" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q120" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A121" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B121" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="H121" s="4">
+        <v>2016</v>
+      </c>
+      <c r="I121" s="5">
+        <v>42370</v>
+      </c>
+      <c r="J121" s="13" t="s">
+        <v>676</v>
+      </c>
+      <c r="K121" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L121" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M121" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N121" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="P121" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q121" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B122" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="H122" s="4">
+        <v>2005</v>
+      </c>
+      <c r="I122" s="5">
+        <v>38370</v>
+      </c>
+      <c r="J122" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="K122" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L122" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M122" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="N122" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="P122" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q122" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B123" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="H123" s="4">
+        <v>2005</v>
+      </c>
+      <c r="I123" s="5">
+        <v>38370</v>
+      </c>
+      <c r="J123" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="K123" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L123" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M123" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N123" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="P123" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q123" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B124" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="H124" s="4">
+        <v>2015</v>
+      </c>
+      <c r="I124" s="5">
+        <v>42005</v>
+      </c>
+      <c r="J124" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="K124" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L124" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M124" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N124" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="P124" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q124" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B125" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="H125" s="4">
+        <v>2017</v>
+      </c>
+      <c r="I125" s="5">
+        <v>42736</v>
+      </c>
+      <c r="J125" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="K125" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="L125" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M125" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N125" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="P125" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q125" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A126" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B126" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="H126" s="4">
+        <v>2004</v>
+      </c>
+      <c r="I126" s="5">
+        <v>38370</v>
+      </c>
+      <c r="J126" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="K126" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L126" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M126" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N126" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="P126" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q126" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A127" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B127" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="H127" s="4">
+        <v>2004</v>
+      </c>
+      <c r="I127" s="5">
+        <v>37987</v>
+      </c>
+      <c r="J127" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="K127" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L127" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M127" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N127" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="P127" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q127" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B128" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="H128" s="4">
+        <v>2005</v>
+      </c>
+      <c r="I128" s="5">
+        <v>38370</v>
+      </c>
+      <c r="J128" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="K128" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L128" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M128" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N128" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="P128" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q128" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B129" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="H129" s="4">
+        <v>2005</v>
+      </c>
+      <c r="I129" s="5">
+        <v>38370</v>
+      </c>
+      <c r="J129" s="13" t="s">
+        <v>699</v>
+      </c>
+      <c r="K129" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L129" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M129" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="N129" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="P129" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q129" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A130" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B130" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="H130" s="4">
+        <v>2012</v>
+      </c>
+      <c r="I130" s="5">
+        <v>40909</v>
+      </c>
+      <c r="J130" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="K130" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L130" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M130" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N130" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="P130" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q130" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A131" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B131" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="H131" s="4">
+        <v>2013</v>
+      </c>
+      <c r="I131" s="5">
+        <v>41548</v>
+      </c>
+      <c r="J131" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="K131" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L131" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M131" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N131" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="P131" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q131" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A132" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B132" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="H132" s="4">
+        <v>2018</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="J132" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="K132" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L132" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M132" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N132" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="P132" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q132" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B133" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="H133" s="4">
+        <v>2016</v>
+      </c>
+      <c r="I133" s="5">
+        <v>42644</v>
+      </c>
+      <c r="J133" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="K133" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L133" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M133" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N133" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="P133" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q133" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A134" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B134" s="5">
+        <v>43563</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="H134" s="4">
+        <v>2011</v>
+      </c>
+      <c r="I134" s="5">
+        <v>40664</v>
+      </c>
+      <c r="J134" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="K134" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="L134" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M134" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N134" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="P134" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q134" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A135" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="J135" s="12"/>
+      <c r="P135" s="11"/>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B136" s="5">
+        <v>43563</v>
+      </c>
+      <c r="K136" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L136" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M136" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P136" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q136" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B137" s="5">
+        <v>43563</v>
+      </c>
+      <c r="K137" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L137" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M137" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P137" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q137" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A138" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B138" s="5">
+        <v>43563</v>
+      </c>
+      <c r="K138" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L138" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M138" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P138" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q138" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A139" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B139" s="5">
+        <v>43563</v>
+      </c>
+      <c r="K139" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L139" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M139" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P139" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q139" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B140" s="5">
+        <v>43563</v>
+      </c>
+      <c r="K140" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L140" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M140" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P140" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q140" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B141" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P141" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q141" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B142" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P142" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q142" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B143" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P143" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q143" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B144" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P144" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q144" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B145" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P145" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q145" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B146" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P146" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q146" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B147" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P147" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q147" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B148" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P148" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q148" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A149" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B149" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P149" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q149" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A150" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B150" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P150" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q150" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A151" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B151" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P151" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q151" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A152" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B152" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P152" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q152" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A153" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B153" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P153" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q153" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A154" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B154" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P154" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q154" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B155" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P155" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q155" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A156" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B156" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P156" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q156" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A157" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B157" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P157" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q157" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A158" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B158" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P158" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q158" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B159" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P159" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q159" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A160" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B160" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P160" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q160" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A161" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B161" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P161" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q161" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B162" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P162" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q162" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B163" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P163" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q163" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A164" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B164" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P164" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q164" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A165" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B165" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P165" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q165" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A166" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B166" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P166" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q166" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A167" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B167" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P167" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q167" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A168" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B168" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P168" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q168" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A169" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B169" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P169" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q169" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A170" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B170" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P170" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q170" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A171" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B171" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P171" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q171" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A172" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B172" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P172" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q172" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A173" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B173" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P173" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q173" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A174" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B174" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P174" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q174" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A175" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B175" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P175" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q175" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A176" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B176" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P176" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q176" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A177" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B177" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P177" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q177" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A178" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B178" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P178" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q178" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A179" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B179" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P179" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q179" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A180" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B180" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P180" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q180" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A181" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B181" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P181" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q181" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A182" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B182" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P182" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q182" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A183" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B183" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P183" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q183" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A184" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B184" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P184" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q184" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A185" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B185" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P185" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q185" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A186" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B186" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P186" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q186" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A187" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B187" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P187" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q187" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A188" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B188" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P188" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q188" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A189" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B189" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P189" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q189" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A190" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B190" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P190" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q190" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A191" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B191" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P191" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q191" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A192" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B192" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P192" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q192" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A193" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B193" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P193" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q193" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A194" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B194" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P194" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q194" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A195" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B195" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P195" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q195" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A196" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B196" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P196" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q196" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A197" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B197" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P197" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q197" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A198" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B198" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P198" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q198" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A199" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B199" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P199" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q199" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A200" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B200" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P200" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q200" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A201" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B201" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P201" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q201" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A202" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B202" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P202" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q202" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A203" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B203" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P203" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q203" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A204" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B204" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P204" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q204" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A205" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B205" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P205" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q205" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A206" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B206" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P206" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q206" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A207" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B207" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P207" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q207" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A208" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B208" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P208" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q208" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A209" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B209" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P209" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q209" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A210" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B210" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P210" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q210" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A211" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B211" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P211" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q211" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A212" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B212" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P212" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q212" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A213" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B213" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P213" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q213" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A214" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B214" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P214" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q214" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A215" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B215" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P215" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q215" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A216" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B216" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P216" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q216" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A217" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B217" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P217" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q217" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A218" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B218" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P218" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q218" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A219" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B219" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P219" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q219" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A220" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B220" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P220" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q220" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A221" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B221" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P221" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q221" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A222" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B222" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P222" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q222" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A223" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B223" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P223" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q223" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A224" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B224" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P224" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q224" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A225" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B225" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P225" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q225" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A226" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B226" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P226" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q226" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A227" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B227" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P227" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q227" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A228" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B228" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P228" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q228" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A229" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B229" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P229" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q229" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A230" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B230" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P230" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q230" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A231" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B231" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P231" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q231" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A232" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B232" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P232" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q232" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A233" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B233" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P233" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q233" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A234" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B234" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P234" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q234" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A235" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B235" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P235" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q235" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A236" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B236" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P236" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q236" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A237" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B237" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P237" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q237" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A238" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B238" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P238" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q238" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A239" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B239" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P239" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q239" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A240" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B240" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P240" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q240" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A241" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B241" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P241" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q241" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A242" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B242" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P242" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q242" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A243" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B243" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P243" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q243" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A244" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B244" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P244" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q244" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A245" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B245" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P245" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q245" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A246" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B246" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P246" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q246" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A247" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B247" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P247" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q247" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A248" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B248" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P248" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q248" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A249" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B249" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P249" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q249" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A250" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B250" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P250" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q250" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A251" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B251" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P251" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q251" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A252" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B252" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P252" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q252" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A253" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B253" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P253" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q253" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A254" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B254" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P254" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q254" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A255" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B255" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P255" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q255" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A256" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B256" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P256" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q256" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A257" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B257" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P257" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q257" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A258" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B258" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P258" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q258" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A259" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B259" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P259" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q259" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A260" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B260" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P260" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q260" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A261" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B261" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P261" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q261" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A262" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B262" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P262" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q262" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A263" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B263" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P263" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q263" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A264" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B264" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P264" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q264" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A265" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B265" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P265" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q265" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="266" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A266" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B266" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P266" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q266" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A267" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B267" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P267" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q267" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A268" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B268" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P268" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q268" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="269" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A269" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B269" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P269" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q269" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="270" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A270" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B270" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P270" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q270" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="271" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A271" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B271" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P271" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q271" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="272" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A272" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B272" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P272" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q272" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="273" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A273" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B273" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P273" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q273" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="274" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A274" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B274" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P274" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q274" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="275" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A275" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B275" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P275" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q275" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="276" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A276" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B276" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P276" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q276" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="277" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A277" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B277" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P277" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q277" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="278" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A278" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B278" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P278" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q278" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="279" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A279" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B279" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P279" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q279" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="280" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A280" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B280" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P280" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q280" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="281" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A281" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B281" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P281" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q281" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="282" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A282" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B282" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P282" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q282" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="283" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A283" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B283" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P283" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q283" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="284" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A284" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B284" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P284" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q284" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="285" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A285" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B285" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P285" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q285" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="286" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A286" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B286" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P286" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q286" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="287" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A287" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B287" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P287" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q287" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="288" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A288" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B288" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P288" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q288" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="289" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A289" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B289" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P289" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q289" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="290" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A290" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B290" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P290" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q290" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="291" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A291" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B291" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P291" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q291" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="292" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A292" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B292" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P292" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q292" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="293" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A293" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B293" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P293" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q293" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="294" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A294" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B294" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P294" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q294" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="295" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A295" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B295" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P295" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q295" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="296" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A296" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B296" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P296" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q296" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="297" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A297" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B297" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P297" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q297" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="298" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A298" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B298" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P298" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q298" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="299" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A299" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B299" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P299" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q299" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="300" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A300" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B300" s="5">
+        <v>43563</v>
+      </c>
+      <c r="P300" s="5">
+        <v>43636</v>
+      </c>
+      <c r="Q300" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
